--- a/HW5/CS513-Assignment5.1.xlsx
+++ b/HW5/CS513-Assignment5.1.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D757ABF6-D05C-496E-8FC0-9BA3B6D9AE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Github\CS513_KnowledgeDiscoveryDataMining\HW5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -253,12 +257,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,215 +522,215 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,7 +769,7 @@
         <xdr:cNvPr id="9" name="Straight Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5EC87E-A6C5-417B-BBD0-6867688F73CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C5EC87E-A6C5-417B-BBD0-6867688F73CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,10 +821,10 @@
         <xdr:cNvPr id="10" name="Straight Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0FDCEFD-AE90-44AD-84FB-EC43247D24EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0FDCEFD-AE90-44AD-84FB-EC43247D24EB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0C5EC87E-A6C5-417B-BBD0-6867688F73CE}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0C5EC87E-A6C5-417B-BBD0-6867688F73CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,10 +876,10 @@
         <xdr:cNvPr id="12" name="Straight Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F589904-39F1-4BCA-946B-9B8EA91E9A54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F589904-39F1-4BCA-946B-9B8EA91E9A54}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D0FDCEFD-AE90-44AD-84FB-EC43247D24EB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{D0FDCEFD-AE90-44AD-84FB-EC43247D24EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -930,10 +934,10 @@
         <xdr:cNvPr id="13" name="Straight Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F24F5F-AFD2-496C-92B1-4749058E2A74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37F24F5F-AFD2-496C-92B1-4749058E2A74}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6F589904-39F1-4BCA-946B-9B8EA91E9A54}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{6F589904-39F1-4BCA-946B-9B8EA91E9A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -988,10 +992,10 @@
         <xdr:cNvPr id="14" name="Straight Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4C134C-8D5B-4876-B77C-08C8835AB91B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A4C134C-8D5B-4876-B77C-08C8835AB91B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{37F24F5F-AFD2-496C-92B1-4749058E2A74}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{37F24F5F-AFD2-496C-92B1-4749058E2A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,10 +1050,10 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD6666E-1C47-402E-9155-21C4A52F0691}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFD6666E-1C47-402E-9155-21C4A52F0691}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9A4C134C-8D5B-4876-B77C-08C8835AB91B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{9A4C134C-8D5B-4876-B77C-08C8835AB91B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1104,10 +1108,10 @@
         <xdr:cNvPr id="16" name="Straight Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F37EC3C-1F44-4AA7-BF06-C7A8420478F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F37EC3C-1F44-4AA7-BF06-C7A8420478F8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AFD6666E-1C47-402E-9155-21C4A52F0691}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AFD6666E-1C47-402E-9155-21C4A52F0691}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,10 +1166,10 @@
         <xdr:cNvPr id="17" name="Straight Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFFCCBD-AD2E-4997-81A3-A4BADA381998}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEFFCCBD-AD2E-4997-81A3-A4BADA381998}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1F37EC3C-1F44-4AA7-BF06-C7A8420478F8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1F37EC3C-1F44-4AA7-BF06-C7A8420478F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,10 +1224,10 @@
         <xdr:cNvPr id="18" name="Straight Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42320D1B-0A83-4886-89C6-D7D1FBFCA93E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42320D1B-0A83-4886-89C6-D7D1FBFCA93E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AEFFCCBD-AD2E-4997-81A3-A4BADA381998}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{AEFFCCBD-AD2E-4997-81A3-A4BADA381998}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,10 +1282,10 @@
         <xdr:cNvPr id="19" name="Straight Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA69E24-8775-44B2-8DE0-0529A1437CD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AA69E24-8775-44B2-8DE0-0529A1437CD3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{42320D1B-0A83-4886-89C6-D7D1FBFCA93E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{42320D1B-0A83-4886-89C6-D7D1FBFCA93E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,10 +1340,10 @@
         <xdr:cNvPr id="21" name="Straight Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB52375F-4160-4840-AE59-1B494A05CA97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB52375F-4160-4840-AE59-1B494A05CA97}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5AA69E24-8775-44B2-8DE0-0529A1437CD3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{5AA69E24-8775-44B2-8DE0-0529A1437CD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,10 +1398,10 @@
         <xdr:cNvPr id="22" name="Straight Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DDF0C5-50CE-47C0-86EA-9F97F82D6E6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3DDF0C5-50CE-47C0-86EA-9F97F82D6E6F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BB52375F-4160-4840-AE59-1B494A05CA97}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{BB52375F-4160-4840-AE59-1B494A05CA97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,10 +1456,10 @@
         <xdr:cNvPr id="24" name="Straight Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33657E0-DA33-4696-8EE5-75E57179C081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F33657E0-DA33-4696-8EE5-75E57179C081}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B3DDF0C5-50CE-47C0-86EA-9F97F82D6E6F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B3DDF0C5-50CE-47C0-86EA-9F97F82D6E6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,10 +1514,10 @@
         <xdr:cNvPr id="25" name="Straight Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DBBAFF-928A-43C0-87CC-E04487825996}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19DBBAFF-928A-43C0-87CC-E04487825996}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F33657E0-DA33-4696-8EE5-75E57179C081}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F33657E0-DA33-4696-8EE5-75E57179C081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,10 +1572,10 @@
         <xdr:cNvPr id="26" name="Straight Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCE18BA-5346-47F7-AB1F-207328CFD89D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CCE18BA-5346-47F7-AB1F-207328CFD89D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{19DBBAFF-928A-43C0-87CC-E04487825996}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{19DBBAFF-928A-43C0-87CC-E04487825996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,10 +1630,10 @@
         <xdr:cNvPr id="27" name="Straight Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BE5985-8588-44BC-B8DB-7A8193FE8426}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2BE5985-8588-44BC-B8DB-7A8193FE8426}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7CCE18BA-5346-47F7-AB1F-207328CFD89D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{7CCE18BA-5346-47F7-AB1F-207328CFD89D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,41 +1969,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J21" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27:Q28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="1" customWidth="1"/>
     <col min="14" max="14" width="19" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="20" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="16.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.44140625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="4.5" customHeight="1"/>
-    <row r="2" spans="2:21">
+    <row r="1" spans="2:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2026,1892 +2030,1898 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="71"/>
+      <c r="P2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="2:21">
-      <c r="B3" s="10" t="s">
+      <c r="Q2" s="75"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>45</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>48000</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20" t="s">
+      <c r="O3" s="72"/>
+      <c r="P3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="2:21">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+      <c r="Q3" s="76"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>25</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="19">
         <v>25000</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="26" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="22">
         <v>0.18181818181818182</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="16">
         <f>-LOG(J4,2)*J4</f>
         <v>0.44716938520678134</v>
       </c>
-      <c r="L4" s="28"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20" t="s">
+      <c r="O4" s="73"/>
+      <c r="P4" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29" t="s">
+      <c r="Q4" s="76"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="25">
         <v>33</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="27">
         <v>35000</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="29">
         <v>0.27272727272727271</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="16">
         <f>-LOG(J5,2)*J5</f>
         <v>0.51121885034076575</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20" t="s">
+      <c r="O5" s="73"/>
+      <c r="P5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="2:21">
-      <c r="B6" s="22" t="s">
+      <c r="Q5" s="76"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>25</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="19">
         <v>45000</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="29">
         <v>0.36363636363636365</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="16">
         <f>-LOG(J6,2)*J6</f>
         <v>0.53070240677719904</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
+      <c r="O6" s="73"/>
+      <c r="P6" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="2:21">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
+      <c r="Q6" s="76"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>35</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="19">
         <v>65000</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="35" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="31">
         <v>0.18181818181818182</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="16">
         <f>-LOG(J7,2)*J7</f>
         <v>0.44716938520678134</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20" t="s">
+      <c r="O7" s="73"/>
+      <c r="P7" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
+      <c r="Q7" s="76"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="17">
         <v>26</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="19">
         <v>45000</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="37" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39">
+      <c r="J8" s="66"/>
+      <c r="K8" s="32">
         <f>SUM(K4:K7)</f>
         <v>1.9362600275315274</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20" t="s">
+      <c r="O8" s="73"/>
+      <c r="P8" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29" t="s">
+      <c r="Q8" s="76"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="25">
         <v>45</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="27">
         <v>70000</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="J9" s="40"/>
+      <c r="H9" s="17"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20" t="s">
+      <c r="O9" s="73"/>
+      <c r="P9" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="2:21">
-      <c r="B10" s="22" t="s">
+      <c r="Q9" s="76"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>40</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="19">
         <v>50000</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="17"/>
       <c r="L10" s="6"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41" t="s">
+      <c r="O10" s="74"/>
+      <c r="P10" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="42"/>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29" t="s">
+      <c r="Q10" s="77"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="24">
         <v>30</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="27">
         <v>40000</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="17"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-    </row>
-    <row r="12" spans="2:21">
-      <c r="B12" s="22" t="s">
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>50</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="19">
         <v>40000</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="43"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-    </row>
-    <row r="13" spans="2:21">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29" t="s">
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="25">
         <v>25</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="27">
         <v>25000</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="43"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="I14" s="43"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="I14" s="34"/>
       <c r="J14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:21">
-      <c r="B15" s="45" t="s">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47">
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69">
         <v>1</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="46">
+      <c r="J15" s="69"/>
+      <c r="K15" s="68">
         <v>2</v>
       </c>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47">
+      <c r="L15" s="68"/>
+      <c r="M15" s="69">
         <v>3</v>
       </c>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47">
+      <c r="N15" s="69"/>
+      <c r="O15" s="69">
         <v>4</v>
       </c>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="46" t="s">
+      <c r="P15" s="69"/>
+      <c r="Q15" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="48"/>
-    </row>
-    <row r="16" spans="2:21" s="54" customFormat="1">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50" t="s">
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="70"/>
+    </row>
+    <row r="16" spans="2:21" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="51" t="s">
+      <c r="K16" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="52" t="s">
+      <c r="L16" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="52" t="s">
+      <c r="M16" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="52" t="s">
+      <c r="O16" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="52" t="s">
+      <c r="P16" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="51" t="s">
+      <c r="Q16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R16" s="51" t="s">
+      <c r="R16" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="S16" s="51" t="s">
+      <c r="S16" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="51" t="s">
+      <c r="T16" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="U16" s="53" t="s">
+      <c r="U16" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:21">
-      <c r="B17" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15" t="s">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="43">
         <v>1</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="43">
         <v>1</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="43">
         <v>1</v>
       </c>
-      <c r="G17" s="56">
-        <v>0</v>
-      </c>
-      <c r="H17" s="56">
+      <c r="G17" s="43">
+        <v>0</v>
+      </c>
+      <c r="H17" s="43">
         <f>SUM(D17:G17)</f>
         <v>3</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="44">
         <f>(D17/H17)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="44">
         <f>-(I17*LOG(I17,2))</f>
         <v>0.52832083357371873</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="44">
         <f>(E17/H17)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="45">
         <f>-(K17*LOG(K17,2))</f>
         <v>0.52832083357371873</v>
       </c>
-      <c r="M17" s="58">
+      <c r="M17" s="45">
         <f>(F17/H17)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N17" s="58">
+      <c r="N17" s="45">
         <f>-(M17*LOG(M17,2))</f>
         <v>0.52832083357371873</v>
       </c>
-      <c r="O17" s="58">
+      <c r="O17" s="45">
         <f>(G17/H17)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="57">
+      <c r="P17" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="44">
         <f>SUM(J17,L17,N17,P17)</f>
         <v>1.5849625007211561</v>
       </c>
-      <c r="R17" s="57">
+      <c r="R17" s="44">
         <f>(H17/11)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="S17" s="57">
+      <c r="S17" s="44">
         <f>(R17*Q17)</f>
         <v>0.43226250019667889</v>
       </c>
-      <c r="T17" s="57">
+      <c r="T17" s="44">
         <f>SUM(S17:S20)</f>
         <v>1.1595352274694062</v>
       </c>
-      <c r="U17" s="59">
+      <c r="U17" s="46">
         <f>(K8-T17)</f>
         <v>0.77672480006212119</v>
       </c>
     </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="55"/>
-      <c r="C18" s="15" t="s">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="42"/>
+      <c r="C18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="56">
-        <v>0</v>
-      </c>
-      <c r="E18" s="56">
-        <v>0</v>
-      </c>
-      <c r="F18" s="56">
+      <c r="D18" s="43">
+        <v>0</v>
+      </c>
+      <c r="E18" s="43">
+        <v>0</v>
+      </c>
+      <c r="F18" s="43">
         <v>2</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="43">
         <v>2</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="43">
         <f t="shared" ref="H18:H25" si="0">SUM(D18:G18)</f>
         <v>4</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="44">
         <f t="shared" ref="I18:I25" si="1">(D18/H18)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57">
-        <v>0</v>
-      </c>
-      <c r="K18" s="57">
+      <c r="J18" s="44">
+        <v>0</v>
+      </c>
+      <c r="K18" s="44">
         <f t="shared" ref="K18:K25" si="2">(E18/H18)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="58">
-        <v>0</v>
-      </c>
-      <c r="M18" s="58">
+      <c r="L18" s="45">
+        <v>0</v>
+      </c>
+      <c r="M18" s="45">
         <f t="shared" ref="M18:M25" si="3">(F18/H18)</f>
         <v>0.5</v>
       </c>
-      <c r="N18" s="58">
+      <c r="N18" s="45">
         <f t="shared" ref="N18:N25" si="4">-(M18*LOG(M18,2))</f>
         <v>0.5</v>
       </c>
-      <c r="O18" s="58">
+      <c r="O18" s="45">
         <f t="shared" ref="O18:O25" si="5">(G18/H18)</f>
         <v>0.5</v>
       </c>
-      <c r="P18" s="58">
+      <c r="P18" s="45">
         <f t="shared" ref="P18:P25" si="6">-(O18*LOG(O18,2))</f>
         <v>0.5</v>
       </c>
-      <c r="Q18" s="57">
+      <c r="Q18" s="44">
         <f t="shared" ref="Q18:Q25" si="7">SUM(J18,L18,N18,P18)</f>
         <v>1</v>
       </c>
-      <c r="R18" s="57">
+      <c r="R18" s="44">
         <f t="shared" ref="R18:R25" si="8">(H18/11)</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="S18" s="57">
+      <c r="S18" s="44">
         <f t="shared" ref="S18:S25" si="9">(R18*Q18)</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="T18" s="57"/>
-      <c r="U18" s="60"/>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="B19" s="55"/>
-      <c r="C19" s="15" t="s">
+      <c r="T18" s="44"/>
+      <c r="U18" s="47"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="42"/>
+      <c r="C19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="56">
-        <v>0</v>
-      </c>
-      <c r="E19" s="56">
+      <c r="D19" s="43">
+        <v>0</v>
+      </c>
+      <c r="E19" s="43">
         <v>1</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="43">
         <v>1</v>
       </c>
-      <c r="G19" s="56">
-        <v>0</v>
-      </c>
-      <c r="H19" s="56">
+      <c r="G19" s="43">
+        <v>0</v>
+      </c>
+      <c r="H19" s="43">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="57">
-        <v>0</v>
-      </c>
-      <c r="K19" s="57">
+      <c r="J19" s="44">
+        <v>0</v>
+      </c>
+      <c r="K19" s="44">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="L19" s="58">
-        <f t="shared" ref="L18:L25" si="10">-(K19*LOG(K19,2))</f>
+      <c r="L19" s="45">
+        <f t="shared" ref="L19:L25" si="10">-(K19*LOG(K19,2))</f>
         <v>0.5</v>
       </c>
-      <c r="M19" s="58">
+      <c r="M19" s="45">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="45">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="O19" s="58">
+      <c r="O19" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P19" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="57">
+      <c r="P19" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="44">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R19" s="57">
+      <c r="R19" s="44">
         <f t="shared" si="8"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="S19" s="57">
+      <c r="S19" s="44">
         <f t="shared" si="9"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="T19" s="57"/>
-      <c r="U19" s="60"/>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="B20" s="61"/>
-      <c r="C20" s="30" t="s">
+      <c r="T19" s="44"/>
+      <c r="U19" s="47"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="48"/>
+      <c r="C20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="49">
         <v>1</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E20" s="49">
         <v>1</v>
       </c>
-      <c r="F20" s="62">
-        <v>0</v>
-      </c>
-      <c r="G20" s="62">
-        <v>0</v>
-      </c>
-      <c r="H20" s="62">
+      <c r="F20" s="49">
+        <v>0</v>
+      </c>
+      <c r="G20" s="49">
+        <v>0</v>
+      </c>
+      <c r="H20" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="50">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J20" s="63">
-        <f t="shared" ref="J18:J25" si="11">-(I20*LOG(I20,2))</f>
+      <c r="J20" s="50">
+        <f t="shared" ref="J20:J23" si="11">-(I20*LOG(I20,2))</f>
         <v>0.5</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="50">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="L20" s="64">
+      <c r="L20" s="51">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="M20" s="64">
+      <c r="M20" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N20" s="64">
-        <v>0</v>
-      </c>
-      <c r="O20" s="64">
+      <c r="N20" s="51">
+        <v>0</v>
+      </c>
+      <c r="O20" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P20" s="64">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="63">
+      <c r="P20" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="50">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R20" s="63">
+      <c r="R20" s="50">
         <f t="shared" si="8"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="S20" s="63">
+      <c r="S20" s="50">
         <f t="shared" si="9"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="T20" s="63"/>
-      <c r="U20" s="65"/>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="B21" s="55" t="s">
+      <c r="T20" s="50"/>
+      <c r="U20" s="52"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="56">
-        <v>0</v>
-      </c>
-      <c r="E21" s="56">
+      <c r="D21" s="43">
+        <v>0</v>
+      </c>
+      <c r="E21" s="43">
         <v>1</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="43">
         <v>2</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="43">
         <v>2</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="57">
-        <v>0</v>
-      </c>
-      <c r="K21" s="57">
+      <c r="J21" s="44">
+        <v>0</v>
+      </c>
+      <c r="K21" s="44">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="45">
         <f t="shared" si="10"/>
         <v>0.46438561897747244</v>
       </c>
-      <c r="M21" s="58">
+      <c r="M21" s="45">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="45">
         <f t="shared" si="4"/>
         <v>0.52877123795494485</v>
       </c>
-      <c r="O21" s="58">
+      <c r="O21" s="45">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="P21" s="58">
+      <c r="P21" s="45">
         <f t="shared" si="6"/>
         <v>0.52877123795494485</v>
       </c>
-      <c r="Q21" s="57">
+      <c r="Q21" s="44">
         <f t="shared" si="7"/>
         <v>1.5219280948873621</v>
       </c>
-      <c r="R21" s="57">
+      <c r="R21" s="44">
         <f t="shared" si="8"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="S21" s="57">
+      <c r="S21" s="44">
         <f t="shared" si="9"/>
         <v>0.69178549767607367</v>
       </c>
-      <c r="T21" s="57">
+      <c r="T21" s="44">
         <f>SUM(S21:S22)</f>
         <v>1.5563104980694313</v>
       </c>
-      <c r="U21" s="60">
+      <c r="U21" s="47">
         <f>(K8-T21)</f>
         <v>0.37994952946209604</v>
       </c>
     </row>
-    <row r="22" spans="2:21">
-      <c r="B22" s="61"/>
-      <c r="C22" s="30" t="s">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="48"/>
+      <c r="C22" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="49">
         <v>2</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="49">
         <v>2</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="49">
         <v>2</v>
       </c>
-      <c r="G22" s="62">
-        <v>0</v>
-      </c>
-      <c r="H22" s="62">
+      <c r="G22" s="49">
+        <v>0</v>
+      </c>
+      <c r="H22" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I22" s="63">
+      <c r="I22" s="50">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J22" s="63">
+      <c r="J22" s="50">
         <f t="shared" si="11"/>
         <v>0.52832083357371873</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="50">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="51">
         <f t="shared" si="10"/>
         <v>0.52832083357371873</v>
       </c>
-      <c r="M22" s="64">
+      <c r="M22" s="51">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N22" s="64">
+      <c r="N22" s="51">
         <f t="shared" si="4"/>
         <v>0.52832083357371873</v>
       </c>
-      <c r="O22" s="64">
+      <c r="O22" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P22" s="64">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="63">
+      <c r="P22" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="50">
         <f t="shared" si="7"/>
         <v>1.5849625007211561</v>
       </c>
-      <c r="R22" s="63">
+      <c r="R22" s="50">
         <f t="shared" si="8"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="S22" s="63">
+      <c r="S22" s="50">
         <f t="shared" si="9"/>
         <v>0.86452500039335778</v>
       </c>
-      <c r="T22" s="63"/>
-      <c r="U22" s="65"/>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="B23" s="55" t="s">
+      <c r="T22" s="50"/>
+      <c r="U22" s="52"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="43">
         <v>2</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="43">
         <v>1</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="43">
         <v>2</v>
       </c>
-      <c r="G23" s="56">
-        <v>0</v>
-      </c>
-      <c r="H23" s="56">
+      <c r="G23" s="43">
+        <v>0</v>
+      </c>
+      <c r="H23" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="44">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="J23" s="57">
+      <c r="J23" s="44">
         <f t="shared" si="11"/>
         <v>0.52877123795494485</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K23" s="44">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="L23" s="58">
+      <c r="L23" s="45">
         <f t="shared" si="10"/>
         <v>0.46438561897747244</v>
       </c>
-      <c r="M23" s="58">
+      <c r="M23" s="45">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="45">
         <f t="shared" si="4"/>
         <v>0.52877123795494485</v>
       </c>
-      <c r="O23" s="58">
+      <c r="O23" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P23" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="57">
+      <c r="P23" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="44">
         <f t="shared" si="7"/>
         <v>1.5219280948873621</v>
       </c>
-      <c r="R23" s="57">
+      <c r="R23" s="44">
         <f t="shared" si="8"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="S23" s="57">
+      <c r="S23" s="44">
         <f t="shared" si="9"/>
         <v>0.69178549767607367</v>
       </c>
-      <c r="T23" s="57">
+      <c r="T23" s="44">
         <f>SUM(S23:S25)</f>
         <v>1.5563104980694313</v>
       </c>
-      <c r="U23" s="60">
+      <c r="U23" s="47">
         <f>(K8-T23)</f>
         <v>0.37994952946209604</v>
       </c>
     </row>
-    <row r="24" spans="2:21">
-      <c r="B24" s="55"/>
-      <c r="C24" s="15" t="s">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="42"/>
+      <c r="C24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="56">
-        <v>0</v>
-      </c>
-      <c r="E24" s="56">
+      <c r="D24" s="43">
+        <v>0</v>
+      </c>
+      <c r="E24" s="43">
         <v>1</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="43">
         <v>1</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="43">
         <v>1</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="57">
-        <v>0</v>
-      </c>
-      <c r="K24" s="57">
+      <c r="J24" s="44">
+        <v>0</v>
+      </c>
+      <c r="K24" s="44">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L24" s="58">
+      <c r="L24" s="45">
         <f t="shared" si="10"/>
         <v>0.52832083357371873</v>
       </c>
-      <c r="M24" s="58">
+      <c r="M24" s="45">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N24" s="58">
+      <c r="N24" s="45">
         <f t="shared" si="4"/>
         <v>0.52832083357371873</v>
       </c>
-      <c r="O24" s="58">
+      <c r="O24" s="45">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P24" s="58">
+      <c r="P24" s="45">
         <f t="shared" si="6"/>
         <v>0.52832083357371873</v>
       </c>
-      <c r="Q24" s="57">
+      <c r="Q24" s="44">
         <f t="shared" si="7"/>
         <v>1.5849625007211561</v>
       </c>
-      <c r="R24" s="57">
+      <c r="R24" s="44">
         <f t="shared" si="8"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="S24" s="57">
+      <c r="S24" s="44">
         <f t="shared" si="9"/>
         <v>0.43226250019667889</v>
       </c>
-      <c r="T24" s="57"/>
-      <c r="U24" s="60"/>
-    </row>
-    <row r="25" spans="2:21">
-      <c r="B25" s="61"/>
-      <c r="C25" s="30" t="s">
+      <c r="T24" s="44"/>
+      <c r="U24" s="47"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B25" s="48"/>
+      <c r="C25" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="62">
-        <v>0</v>
-      </c>
-      <c r="E25" s="62">
+      <c r="D25" s="49">
+        <v>0</v>
+      </c>
+      <c r="E25" s="49">
         <v>1</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F25" s="49">
         <v>1</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="49">
         <v>1</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="49">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="63">
-        <v>0</v>
-      </c>
-      <c r="K25" s="63">
+      <c r="J25" s="50">
+        <v>0</v>
+      </c>
+      <c r="K25" s="50">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L25" s="64">
+      <c r="L25" s="51">
         <f t="shared" si="10"/>
         <v>0.52832083357371873</v>
       </c>
-      <c r="M25" s="64">
+      <c r="M25" s="51">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N25" s="64">
+      <c r="N25" s="51">
         <f t="shared" si="4"/>
         <v>0.52832083357371873</v>
       </c>
-      <c r="O25" s="64">
+      <c r="O25" s="51">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P25" s="64">
+      <c r="P25" s="51">
         <f t="shared" si="6"/>
         <v>0.52832083357371873</v>
       </c>
-      <c r="Q25" s="63">
+      <c r="Q25" s="50">
         <f t="shared" si="7"/>
         <v>1.5849625007211561</v>
       </c>
-      <c r="R25" s="63">
+      <c r="R25" s="50">
         <f t="shared" si="8"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="S25" s="63">
+      <c r="S25" s="50">
         <f t="shared" si="9"/>
         <v>0.43226250019667889</v>
       </c>
-      <c r="T25" s="63"/>
-      <c r="U25" s="65"/>
-    </row>
-    <row r="27" spans="2:21">
-      <c r="B27" s="66" t="s">
+      <c r="T25" s="50"/>
+      <c r="U25" s="52"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="68" t="s">
+      <c r="H27" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="67" t="s">
+      <c r="I27" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="69" t="s">
+      <c r="J27" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="Q27" s="73" t="s">
+      <c r="Q27" s="63" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="44">
         <v>0.27272727272727271</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="44">
         <v>0.72727272727272729</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="44">
         <v>0.125</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="57">
         <f>(2*C28*D28)</f>
         <v>0.39669421487603301</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="44">
         <f>ABS(F28-G28)+ABS(F29-G29)+ABS(F30-G30)+ABS(F31-G31)</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="47">
         <f>(H28*I28)</f>
         <v>0.2314049586776859</v>
       </c>
-      <c r="Q28" s="74"/>
-    </row>
-    <row r="29" spans="2:21">
+      <c r="Q28" s="64"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="70" t="s">
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G29" s="57">
+      <c r="G29" s="44">
         <v>0.25</v>
       </c>
-      <c r="H29" s="70"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="60"/>
-      <c r="Q29" s="77"/>
-    </row>
-    <row r="30" spans="2:21" ht="15" customHeight="1">
+      <c r="H29" s="57"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="47"/>
+      <c r="Q29" s="61"/>
+    </row>
+    <row r="30" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="70" t="s">
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="57">
+      <c r="F30" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G30" s="44">
         <v>0.375</v>
       </c>
-      <c r="H30" s="70"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="60"/>
-      <c r="N30" s="73" t="s">
+      <c r="H30" s="57"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="47"/>
+      <c r="N30" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="T30" s="73" t="s">
+      <c r="T30" s="63" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:21">
-      <c r="B31" s="71"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="72" t="s">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B31" s="58"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="63">
-        <v>0</v>
-      </c>
-      <c r="G31" s="63">
+      <c r="F31" s="50">
+        <v>0</v>
+      </c>
+      <c r="G31" s="50">
         <v>0.25</v>
       </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="65"/>
-      <c r="N31" s="74"/>
-      <c r="T31" s="74"/>
-    </row>
-    <row r="32" spans="2:21">
+      <c r="H31" s="59"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="52"/>
+      <c r="N31" s="64"/>
+      <c r="T31" s="64"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="44">
         <v>0.36363636363636365</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="44">
         <v>0.63636363636363635</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="57">
-        <v>0</v>
-      </c>
-      <c r="G32" s="57">
+      <c r="F32" s="44">
+        <v>0</v>
+      </c>
+      <c r="G32" s="44">
         <v>0.2857142857142857</v>
       </c>
-      <c r="H32" s="70">
-        <f t="shared" ref="H29:H59" si="12">(2*C32*D32)</f>
+      <c r="H32" s="57">
+        <f t="shared" ref="H32:H56" si="12">(2*C32*D32)</f>
         <v>0.46280991735537191</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="44">
         <f>ABS(F32-G32)+ABS(F33-G33)+ABS(F34-G34)+ABS(F35-G35)</f>
         <v>1.4285714285714284</v>
       </c>
-      <c r="J32" s="59">
+      <c r="J32" s="46">
         <f t="shared" ref="J32:J56" si="13">(H32*I32)</f>
         <v>0.66115702479338834</v>
       </c>
     </row>
-    <row r="33" spans="2:22" ht="15" customHeight="1">
+    <row r="33" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="70" t="s">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="57">
-        <v>0</v>
-      </c>
-      <c r="G33" s="57">
+      <c r="F33" s="44">
+        <v>0</v>
+      </c>
+      <c r="G33" s="44">
         <v>0.42857142857142855</v>
       </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="60"/>
-      <c r="M33" s="73" t="s">
+      <c r="H33" s="57"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="47"/>
+      <c r="M33" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="P33" s="73" t="s">
+      <c r="P33" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="S33" s="73" t="s">
+      <c r="S33" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="U33" s="73" t="s">
+      <c r="U33" s="63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:22">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="70" t="s">
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="44">
         <v>0.5</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G34" s="44">
         <v>0.2857142857142857</v>
       </c>
-      <c r="H34" s="70"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="60"/>
-      <c r="M34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="U34" s="74"/>
-    </row>
-    <row r="35" spans="2:22">
-      <c r="B35" s="71"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="72" t="s">
+      <c r="H34" s="57"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="47"/>
+      <c r="M34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="U34" s="64"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="58"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="50">
         <v>0.5</v>
       </c>
-      <c r="G35" s="63">
-        <v>0</v>
-      </c>
-      <c r="H35" s="72"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="65"/>
-    </row>
-    <row r="36" spans="2:22">
+      <c r="G35" s="50">
+        <v>0</v>
+      </c>
+      <c r="H35" s="59"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="52"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="44">
         <v>0.18181818181818182</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="44">
         <v>0.81818181818181823</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="57">
-        <v>0</v>
-      </c>
-      <c r="G36" s="57">
+      <c r="F36" s="44">
+        <v>0</v>
+      </c>
+      <c r="G36" s="44">
         <v>0.22222222222222221</v>
       </c>
-      <c r="H36" s="70">
+      <c r="H36" s="57">
         <f t="shared" si="12"/>
         <v>0.2975206611570248</v>
       </c>
-      <c r="I36" s="57">
-        <f t="shared" ref="I33:I56" si="14">ABS(F36-G36)+ABS(F37-G37)+ABS(F38-G38)+ABS(F39-G39)</f>
+      <c r="I36" s="44">
+        <f t="shared" ref="I36:I56" si="14">ABS(F36-G36)+ABS(F37-G37)+ABS(F38-G38)+ABS(F39-G39)</f>
         <v>0.88888888888888895</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="47">
         <f t="shared" si="13"/>
         <v>0.26446280991735538</v>
       </c>
-      <c r="L36" s="75" t="s">
+      <c r="L36" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="M36" s="75" t="s">
+      <c r="M36" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="O36" s="75" t="s">
+      <c r="O36" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="75" t="s">
+      <c r="P36" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="R36" s="75" t="s">
+      <c r="R36" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="S36" s="75" t="s">
+      <c r="S36" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="U36" s="75" t="s">
+      <c r="U36" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="75" t="s">
+      <c r="V36" s="62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:22">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="70" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="57">
+      <c r="F37" s="44">
         <v>0.5</v>
       </c>
-      <c r="G37" s="57">
+      <c r="G37" s="44">
         <v>0.22222222222222221</v>
       </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="60"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
-    </row>
-    <row r="38" spans="2:22">
+      <c r="H37" s="57"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="47"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="70" t="s">
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="57">
+      <c r="F38" s="44">
         <v>0.5</v>
       </c>
-      <c r="G38" s="57">
+      <c r="G38" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="60"/>
-    </row>
-    <row r="39" spans="2:22">
-      <c r="B39" s="71"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="72" t="s">
+      <c r="H38" s="57"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="47"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B39" s="58"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="63">
-        <v>0</v>
-      </c>
-      <c r="G39" s="63">
+      <c r="F39" s="50">
+        <v>0</v>
+      </c>
+      <c r="G39" s="50">
         <v>0.22222222222222221</v>
       </c>
-      <c r="H39" s="72"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="65"/>
-    </row>
-    <row r="40" spans="2:22">
+      <c r="H39" s="59"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="52"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="44">
         <v>0.18181818181818182</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="44">
         <v>0.81818181818181823</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="57">
+      <c r="F40" s="44">
         <v>0.5</v>
       </c>
-      <c r="G40" s="57">
+      <c r="G40" s="44">
         <v>0.1111111111111111</v>
       </c>
-      <c r="H40" s="70">
+      <c r="H40" s="57">
         <f t="shared" si="12"/>
         <v>0.2975206611570248</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I40" s="44">
         <f t="shared" si="14"/>
         <v>1.3333333333333335</v>
       </c>
-      <c r="J40" s="60">
+      <c r="J40" s="47">
         <f t="shared" si="13"/>
         <v>0.39669421487603312</v>
       </c>
     </row>
-    <row r="41" spans="2:22">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="70" t="s">
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="44">
         <v>0.5</v>
       </c>
-      <c r="G41" s="57">
+      <c r="G41" s="44">
         <v>0.22222222222222221</v>
       </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="60"/>
-    </row>
-    <row r="42" spans="2:22">
+      <c r="H41" s="57"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="47"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="70" t="s">
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="57">
-        <v>0</v>
-      </c>
-      <c r="G42" s="57">
+      <c r="F42" s="44">
+        <v>0</v>
+      </c>
+      <c r="G42" s="44">
         <v>0.44444444444444442</v>
       </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="60"/>
-    </row>
-    <row r="43" spans="2:22">
-      <c r="B43" s="71"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="72" t="s">
+      <c r="H42" s="57"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="47"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B43" s="58"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="63">
-        <v>0</v>
-      </c>
-      <c r="G43" s="63">
+      <c r="F43" s="50">
+        <v>0</v>
+      </c>
+      <c r="G43" s="50">
         <v>0.22222222222222221</v>
       </c>
-      <c r="H43" s="72"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="65"/>
-    </row>
-    <row r="44" spans="2:22">
+      <c r="H43" s="59"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="52"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="44">
         <v>0.45454545454545453</v>
       </c>
-      <c r="D44" s="57">
+      <c r="D44" s="44">
         <v>0.54545454545454541</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="57">
-        <v>0</v>
-      </c>
-      <c r="G44" s="57">
+      <c r="F44" s="44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H44" s="70">
+      <c r="H44" s="57">
         <f t="shared" si="12"/>
         <v>0.49586776859504128</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="44">
         <f t="shared" si="14"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="J44" s="76">
+      <c r="J44" s="60">
         <f t="shared" si="13"/>
         <v>0.46280991735537186</v>
       </c>
     </row>
-    <row r="45" spans="2:22">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="70" t="s">
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="57">
+      <c r="F45" s="44">
         <v>0.2</v>
       </c>
-      <c r="G45" s="57">
+      <c r="G45" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H45" s="70"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="60"/>
-    </row>
-    <row r="46" spans="2:22">
+      <c r="H45" s="57"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="47"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="70" t="s">
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="44">
         <v>0.4</v>
       </c>
-      <c r="G46" s="57">
+      <c r="G46" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H46" s="70"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="60"/>
-    </row>
-    <row r="47" spans="2:22">
-      <c r="B47" s="71"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="72" t="s">
+      <c r="H46" s="57"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="47"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B47" s="58"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="50">
         <v>0.4</v>
       </c>
-      <c r="G47" s="63">
-        <v>0</v>
-      </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="65"/>
-    </row>
-    <row r="48" spans="2:22">
+      <c r="G47" s="50">
+        <v>0</v>
+      </c>
+      <c r="H47" s="59"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="52"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="57">
+      <c r="C48" s="44">
         <v>0.45454545454545453</v>
       </c>
-      <c r="D48" s="57">
+      <c r="D48" s="44">
         <v>0.54545454545454541</v>
       </c>
-      <c r="E48" s="70" t="s">
+      <c r="E48" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="57">
+      <c r="F48" s="44">
         <v>0.4</v>
       </c>
-      <c r="G48" s="57">
-        <v>0</v>
-      </c>
-      <c r="H48" s="70">
+      <c r="G48" s="44">
+        <v>0</v>
+      </c>
+      <c r="H48" s="57">
         <f t="shared" si="12"/>
         <v>0.49586776859504128</v>
       </c>
-      <c r="I48" s="57">
+      <c r="I48" s="44">
         <f t="shared" si="14"/>
         <v>0.93330000000000002</v>
       </c>
-      <c r="J48" s="76">
+      <c r="J48" s="60">
         <f t="shared" si="13"/>
         <v>0.46279338842975204</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="70" t="s">
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="57">
+      <c r="F49" s="44">
         <v>0.2</v>
       </c>
-      <c r="G49" s="57">
+      <c r="G49" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H49" s="70"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="60"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="H49" s="57"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="47"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="70" t="s">
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="57">
+      <c r="F50" s="44">
         <v>0.4</v>
       </c>
-      <c r="G50" s="57">
+      <c r="G50" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H50" s="70"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="60"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="71"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="72" t="s">
+      <c r="H50" s="57"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="47"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="58"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="63">
-        <v>0</v>
-      </c>
-      <c r="G51" s="63">
+      <c r="F51" s="50">
+        <v>0</v>
+      </c>
+      <c r="G51" s="50">
         <v>0.33329999999999999</v>
       </c>
-      <c r="H51" s="72"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="65"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="H51" s="59"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="52"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="57">
+      <c r="C52" s="44">
         <v>0.27272727272727271</v>
       </c>
-      <c r="D52" s="57">
+      <c r="D52" s="44">
         <v>0.72727272727272729</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="57">
-        <v>0</v>
-      </c>
-      <c r="G52" s="57">
+      <c r="F52" s="44">
+        <v>0</v>
+      </c>
+      <c r="G52" s="44">
         <v>0.25</v>
       </c>
-      <c r="H52" s="70">
+      <c r="H52" s="57">
         <f t="shared" si="12"/>
         <v>0.39669421487603301</v>
       </c>
-      <c r="I52" s="57">
+      <c r="I52" s="44">
         <f t="shared" si="14"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="J52" s="60">
+      <c r="J52" s="47">
         <f t="shared" si="13"/>
         <v>0.2314049586776859</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="15"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="70" t="s">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="13"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="57">
+      <c r="F53" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G53" s="57">
+      <c r="G53" s="44">
         <v>0.25</v>
       </c>
-      <c r="H53" s="70"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="60"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="H53" s="57"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="47"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="70" t="s">
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="57">
+      <c r="F54" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G54" s="57">
+      <c r="G54" s="44">
         <v>0.375</v>
       </c>
-      <c r="H54" s="70"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="60"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="71"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="72" t="s">
+      <c r="H54" s="57"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="47"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="58"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="63">
+      <c r="F55" s="50">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G55" s="63">
+      <c r="G55" s="50">
         <v>0.125</v>
       </c>
-      <c r="H55" s="72"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="65"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="H55" s="59"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="52"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="57">
+      <c r="C56" s="44">
         <v>0.27272727272727271</v>
       </c>
-      <c r="D56" s="57">
+      <c r="D56" s="44">
         <v>0.72727272727272729</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="57">
-        <v>0</v>
-      </c>
-      <c r="G56" s="57">
+      <c r="F56" s="44">
+        <v>0</v>
+      </c>
+      <c r="G56" s="44">
         <v>0.25</v>
       </c>
-      <c r="H56" s="70">
+      <c r="H56" s="57">
         <f t="shared" si="12"/>
         <v>0.39669421487603301</v>
       </c>
-      <c r="I56" s="57">
+      <c r="I56" s="44">
         <f t="shared" si="14"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="J56" s="60">
+      <c r="J56" s="47">
         <f t="shared" si="13"/>
         <v>0.2314049586776859</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="70" t="s">
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="57">
+      <c r="F57" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G57" s="57">
+      <c r="G57" s="44">
         <v>0.25</v>
       </c>
-      <c r="H57" s="70"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="60"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="H57" s="57"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="47"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="70" t="s">
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F58" s="57">
+      <c r="F58" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G58" s="57">
+      <c r="G58" s="44">
         <v>0.375</v>
       </c>
-      <c r="H58" s="70"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="60"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="71"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="72" t="s">
+      <c r="H58" s="57"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="47"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="58"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="63">
+      <c r="F59" s="50">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G59" s="63">
+      <c r="G59" s="50">
         <v>0.125</v>
       </c>
-      <c r="H59" s="72"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="65"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:H15"/>
@@ -3921,30 +3931,24 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="R36:R37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
